--- a/model_comp.xlsx
+++ b/model_comp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CornEnthusiast\Projects\EarVision\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A959F8C6-C00F-4479-9412-7E9BF1B31C7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D1922DB-7342-4F65-8A16-95474679B7EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38290" yWindow="-110" windowWidth="38620" windowHeight="21820" xr2:uid="{578AC8B3-1EF4-496C-AD5C-018006A47558}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="1" xr2:uid="{578AC8B3-1EF4-496C-AD5C-018006A47558}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
   <si>
     <t>Model</t>
   </si>
@@ -72,25 +72,10 @@
     <t>n/a</t>
   </si>
   <si>
-    <t>Inference</t>
-  </si>
-  <si>
-    <t>TransmissionABSDiff Average</t>
-  </si>
-  <si>
-    <t>Predicted:Actual Transmission Ratio Average</t>
-  </si>
-  <si>
-    <t>InferenceOutput_NewModelNoAug</t>
-  </si>
-  <si>
-    <t>unk</t>
-  </si>
-  <si>
-    <t>InferenceOutput_newmodelNoAug_boxNMS_boxscore</t>
-  </si>
-  <si>
-    <t>nop</t>
+    <t>02.27.23_02.06PM</t>
+  </si>
+  <si>
+    <t>02.27.23_02.57PM</t>
   </si>
 </sst>
 </file>
@@ -442,10 +427,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCB5C691-D284-4E2A-AEA2-6F82F0C4A588}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -526,6 +511,34 @@
         <v>7</v>
       </c>
     </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6">
+        <v>23</v>
+      </c>
+      <c r="C6">
+        <v>0.65</v>
+      </c>
+      <c r="D6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7">
+        <v>23</v>
+      </c>
+      <c r="C7">
+        <v>0.82</v>
+      </c>
+      <c r="D7" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -533,10 +546,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{381BE3F8-E9B3-4923-96A0-7C6060D7C874}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -546,56 +559,7 @@
     <col min="4" max="4" width="25.54296875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="38.36328125" bestFit="1" customWidth="1"/>
   </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2">
-        <v>3.05</v>
-      </c>
-      <c r="E2">
-        <v>0.94</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3">
-        <v>1.83</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/model_comp.xlsx
+++ b/model_comp.xlsx
@@ -1,20 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CornEnthusiast\Projects\EarVision\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D1922DB-7342-4F65-8A16-95474679B7EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06434154-3320-483E-9815-CC152D6E937E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="1" xr2:uid="{578AC8B3-1EF4-496C-AD5C-018006A47558}"/>
+    <workbookView xWindow="42460" yWindow="940" windowWidth="33440" windowHeight="20100" xr2:uid="{578AC8B3-1EF4-496C-AD5C-018006A47558}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Feb23_inference_runs" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="31">
   <si>
     <t>Model</t>
   </si>
@@ -76,6 +75,60 @@
   </si>
   <si>
     <t>02.27.23_02.57PM</t>
+  </si>
+  <si>
+    <t>02.27.23_06.02PM</t>
+  </si>
+  <si>
+    <t>Missing gross images?</t>
+  </si>
+  <si>
+    <t>Inference average pred/actual transmission</t>
+  </si>
+  <si>
+    <t>03.06.23_12.55PM</t>
+  </si>
+  <si>
+    <t>yes (2)</t>
+  </si>
+  <si>
+    <t>yes (missing more)</t>
+  </si>
+  <si>
+    <t>yes (missing above plus problematic images)</t>
+  </si>
+  <si>
+    <t>03.13.23_10.37AM</t>
+  </si>
+  <si>
+    <t>this was run with inference twice: once without problem images, once with</t>
+  </si>
+  <si>
+    <t>03.13.23_05.09PM</t>
+  </si>
+  <si>
+    <t>adjusted for created changes to colorjitter</t>
+  </si>
+  <si>
+    <t>03.17.23_02.26PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yes </t>
+  </si>
+  <si>
+    <t>no\</t>
+  </si>
+  <si>
+    <t>03.17.23_04.06PM</t>
+  </si>
+  <si>
+    <t>brightness 0.5</t>
+  </si>
+  <si>
+    <t>brightness 0.8, contrast 0.1</t>
+  </si>
+  <si>
+    <t>doesn't seeem to help, went back to brightness 0.2</t>
   </si>
 </sst>
 </file>
@@ -91,12 +144,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -111,8 +170,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -427,21 +487,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCB5C691-D284-4E2A-AEA2-6F82F0C4A588}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="16.26953125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.81640625" customWidth="1"/>
-    <col min="3" max="3" width="21.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.54296875" customWidth="1"/>
     <col min="4" max="4" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="38.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="37.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -454,8 +516,14 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -468,8 +536,11 @@
       <c r="D2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -482,8 +553,11 @@
       <c r="D3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -496,8 +570,11 @@
       <c r="D4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -510,8 +587,11 @@
       <c r="D5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -524,8 +604,14 @@
       <c r="D6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -537,29 +623,135 @@
       </c>
       <c r="D7" t="s">
         <v>5</v>
+      </c>
+      <c r="E7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8">
+        <v>24</v>
+      </c>
+      <c r="C8">
+        <v>0.69</v>
+      </c>
+      <c r="D8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="1">
+        <v>22</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.61833000000000005</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0.98650899999999997</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10">
+        <v>30</v>
+      </c>
+      <c r="C10">
+        <v>0.6943171883</v>
+      </c>
+      <c r="D10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11">
+        <v>20</v>
+      </c>
+      <c r="C11">
+        <v>0.83116309799999999</v>
+      </c>
+      <c r="D11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" t="s">
+        <v>7</v>
+      </c>
+      <c r="G11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12">
+        <v>20</v>
+      </c>
+      <c r="C12">
+        <v>0.71630199999999999</v>
+      </c>
+      <c r="D12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13">
+        <v>21</v>
+      </c>
+      <c r="C13">
+        <v>0.75399503793111899</v>
+      </c>
+      <c r="D13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" t="s">
+        <v>7</v>
+      </c>
+      <c r="G13" t="s">
+        <v>28</v>
+      </c>
+      <c r="I13" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{381BE3F8-E9B3-4923-96A0-7C6060D7C874}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="30.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="38.36328125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>